--- a/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
+++ b/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLocalRepository\professional-training\【项目成果物】第11组-hungry\03.项目文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF137AB3-F3F5-4BAB-9525-837465FFB960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B708E5-28D0-422B-8DD4-EDBC10FEED64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,15 +57,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未开始</t>
-  </si>
-  <si>
-    <t>退出功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
@@ -156,6 +148,26 @@
   </si>
   <si>
     <t>U202217258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发人员/测试组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE/UI设计员/项目经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组长/技术经理/项目经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写项目启动文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,13 +704,13 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33" style="4" customWidth="1"/>
     <col min="3" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
@@ -712,27 +724,35 @@
     </row>
     <row r="2" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -766,13 +786,13 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="7"/>
-    <col min="2" max="2" width="17.88671875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="9" customWidth="1"/>
     <col min="3" max="3" width="18" style="9" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" style="9" customWidth="1"/>
     <col min="5" max="5" width="12.109375" customWidth="1"/>
@@ -805,25 +825,27 @@
         <v>4</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B3" s="11" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C3" s="12">
-        <v>45448</v>
+        <v>45461</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -831,14 +853,10 @@
     </row>
     <row r="4" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="12">
-        <v>45448</v>
-      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -849,7 +867,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -860,7 +878,7 @@
       <c r="B6" s="11"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -871,7 +889,7 @@
       <c r="B7" s="11"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -882,7 +900,7 @@
       <c r="B8" s="11"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -893,7 +911,7 @@
       <c r="B9" s="11"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -904,7 +922,7 @@
       <c r="B10" s="11"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -915,7 +933,7 @@
       <c r="B11" s="11"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1101,27 +1119,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
@@ -1129,7 +1147,7 @@
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="22"/>
@@ -1137,7 +1155,7 @@
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
@@ -1145,7 +1163,7 @@
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
@@ -1153,7 +1171,7 @@
     </row>
     <row r="7" spans="1:4" s="8" customFormat="1" ht="65.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
@@ -1161,27 +1179,27 @@
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -1189,7 +1207,7 @@
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
@@ -1197,7 +1215,7 @@
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
@@ -1205,7 +1223,7 @@
     </row>
     <row r="16" spans="1:4" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
@@ -1213,7 +1231,7 @@
     </row>
     <row r="17" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -1221,16 +1239,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1253,7 +1271,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1263,20 +1281,20 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>24</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1284,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="18"/>
@@ -1299,7 +1317,7 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
@@ -1311,7 +1329,7 @@
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="18"/>
@@ -1323,7 +1341,7 @@
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="18"/>

--- a/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
+++ b/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLocalRepository\professional-training\【项目成果物】第11组-hungry\03.项目文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B708E5-28D0-422B-8DD4-EDBC10FEED64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D9E460-9B6C-459D-B26F-F33590E40380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,23 +151,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发人员/测试组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UE/UI设计员/项目经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组长/技术经理/项目经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编写项目启动文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>鲁帅雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.UE和UI设计；
+2.静态页设计；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据库设计；
+2.接口设计；
+3.程序开发，主要负责点餐界面的后端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.程序开发，主要负责前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.程序开发，主要负责用户中心、送货地址和查询商品界面的后端
+2.测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.环境框架搭建
+2.程序开发，主要负责用户登录/注册界面和筛选商品的后端
+3.测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -341,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -420,6 +437,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,13 +730,13 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="4" customWidth="1"/>
     <col min="3" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
@@ -722,41 +748,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" s="31" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="31" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="31" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="31" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="31" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="B6" s="30" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -786,7 +816,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -839,13 +869,13 @@
         <v>24</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="12">
         <v>45461</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1260,7 +1290,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1382,9 @@
         <v>5</v>
       </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="C7" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
       <c r="F7" s="28"/>

--- a/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
+++ b/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLocalRepository\professional-training\【项目成果物】第11组-hungry\03.项目文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D9E460-9B6C-459D-B26F-F33590E40380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED8ECBE-48D5-4BE3-990C-8A0172802573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人员分组表" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>进行中</t>
+  </si>
+  <si>
     <t>已完成</t>
   </si>
   <si>
@@ -177,14 +180,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.程序开发，主要负责用户中心、送货地址和查询商品界面的后端
+    <t>1.程序开发，主要负责用户中心、送货地址和历史订单界面的后端
 2.测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.环境框架搭建
-2.程序开发，主要负责用户登录/注册界面和筛选商品的后端
+2.程序开发，主要负责用户登录/注册界面和查询、筛选商品的后端
 3.测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写需求文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -753,7 +760,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="31" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -761,7 +768,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="31" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -769,7 +776,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="31" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -777,15 +784,15 @@
         <v>27</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="31" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -815,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09345C04-CA22-4810-B0AB-A5FAFFA6DEF5}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -875,18 +882,24 @@
         <v>45461</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="12">
+        <v>45462</v>
+      </c>
       <c r="D4" s="10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1383,7 +1396,7 @@
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>

--- a/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
+++ b/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLocalRepository\professional-training\【项目成果物】第11组-hungry\03.项目文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED8ECBE-48D5-4BE3-990C-8A0172802573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ED8883-BF88-40B4-AE04-56425BCFA888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,11 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.程序开发，主要负责用户中心、送货地址和历史订单界面的后端
-2.测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.环境框架搭建
 2.程序开发，主要负责用户登录/注册界面和查询、筛选商品的后端
 3.测试</t>
@@ -192,6 +187,11 @@
   </si>
   <si>
     <t>编写需求文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.程序开发，主要负责用户中心、送货地址、管理购物车和历史订单界面的后端
+2.测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,6 +418,15 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,15 +453,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,7 +737,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -755,43 +755,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="31" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="31" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="31" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="31" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="31" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -823,7 +823,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -838,20 +838,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
@@ -893,7 +893,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="12">
         <v>45462</v>
@@ -1184,41 +1184,41 @@
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4" s="8" customFormat="1" ht="65.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -1244,54 +1244,54 @@
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" spans="1:4" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1313,12 +1313,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="16"/>
       <c r="F1" s="8"/>
     </row>
@@ -1336,7 +1336,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="18"/>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="31" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="28"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="28"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="28"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="28"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="28"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
@@ -1410,7 +1410,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="28"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
@@ -1420,7 +1420,7 @@
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="28"/>
+      <c r="F9" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
+++ b/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLocalRepository\professional-training\【项目成果物】第11组-hungry\03.项目文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ED8883-BF88-40B4-AE04-56425BCFA888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD1AF93-195E-47C7-B91E-C1E78D86C4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人员分组表" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,9 +153,6 @@
   <si>
     <t>编写项目启动文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
   </si>
   <si>
     <t>已完成</t>
@@ -736,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -760,7 +757,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,7 +765,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -776,7 +773,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -784,15 +781,15 @@
         <v>27</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -822,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09345C04-CA22-4810-B0AB-A5FAFFA6DEF5}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -882,7 +879,7 @@
         <v>45461</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -893,7 +890,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12">
         <v>45462</v>
@@ -1396,7 +1393,7 @@
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>

--- a/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
+++ b/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLocalRepository\professional-training\【项目成果物】第11组-hungry\03.项目文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD1AF93-195E-47C7-B91E-C1E78D86C4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E3F456-E3A5-4D44-9DA2-EF75135EAFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人员分组表" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,28 +167,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.程序开发，主要负责前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写需求文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.数据库设计；
 2.接口设计；
-3.程序开发，主要负责点餐界面的后端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.程序开发，主要负责前端</t>
+3.程序开发，负责后端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.程序开发，负责后端
+2.测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.环境框架搭建
-2.程序开发，主要负责用户登录/注册界面和查询、筛选商品的后端
+2.程序开发，负责后端
 3.测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编写需求文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.程序开发，主要负责用户中心、送货地址、管理购物车和历史订单界面的后端
-2.测试</t>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>工创中心A301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖逍、王临远、吴旭达、饶欣哲、鲁帅雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/6/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：登录、注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：商家列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：点餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：管理购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：下单购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：搜索商家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：查看历史订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：查看商家地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.添加了查看商家地址的功能需求；
+2.分工。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：登录、注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：商家列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：点餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：管理购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：下单购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：搜索商家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：查看历史订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：查看商家地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -450,6 +550,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -757,7 +861,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -773,7 +877,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -781,7 +885,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -789,7 +893,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -819,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09345C04-CA22-4810-B0AB-A5FAFFA6DEF5}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -876,10 +980,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="12">
-        <v>45461</v>
+        <v>45467</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -890,46 +994,64 @@
         <v>24</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="12">
-        <v>45462</v>
+        <v>45469</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="12">
+        <v>45465</v>
+      </c>
       <c r="D5" s="10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="D6" s="10" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="12">
+        <v>45465</v>
+      </c>
       <c r="D7" s="10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -937,8 +1059,12 @@
     </row>
     <row r="8" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
@@ -948,8 +1074,12 @@
     </row>
     <row r="9" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="D9" s="10" t="s">
         <v>6</v>
       </c>
@@ -959,8 +1089,12 @@
     </row>
     <row r="10" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="D10" s="10" t="s">
         <v>6</v>
       </c>
@@ -970,8 +1104,12 @@
     </row>
     <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
@@ -981,99 +1119,167 @@
     </row>
     <row r="12" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1081,8 +1287,12 @@
     <row r="23" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1090,8 +1300,12 @@
     <row r="24" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1099,8 +1313,12 @@
     <row r="25" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1108,8 +1326,12 @@
     <row r="26" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="C26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1117,8 +1339,12 @@
     <row r="27" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="C27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1133,7 +1359,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D11" xr:uid="{3DA0CCCC-02EA-47CF-8712-18094529F906}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D27" xr:uid="{3DA0CCCC-02EA-47CF-8712-18094529F906}">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1146,7 +1372,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1221,27 +1447,37 @@
       <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="32">
+        <v>45465.666666666664</v>
+      </c>
       <c r="C11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
     </row>
@@ -1249,7 +1485,9 @@
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
     </row>
@@ -1257,7 +1495,9 @@
       <c r="A15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
     </row>
@@ -1265,7 +1505,9 @@
       <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
     </row>
@@ -1279,16 +1521,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
+++ b/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLocalRepository\professional-training\【项目成果物】第11组-hungry\03.项目文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E3F456-E3A5-4D44-9DA2-EF75135EAFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F005FAB8-8AC7-49FF-A67C-284BF529F24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人员分组表" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="62">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,133 +162,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.UE和UI设计；
-2.静态页设计；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.程序开发，主要负责前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编写需求文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>工创中心A301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖逍、王临远、吴旭达、饶欣哲、鲁帅雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/6/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：登录、注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：商家列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：点餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：下单购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：搜索商家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：查看历史订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：查看商家地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.添加了查看商家地址的功能需求；
+2.分工。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：登录、注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：商家列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：点餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：下单购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：搜索商家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：查看历史订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：查看商家地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：管理送货地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.数据库设计；
 2.接口设计；
-3.程序开发，负责后端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.程序开发，负责后端
-2.测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.环境框架搭建
-2.程序开发，负责后端
-3.测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-  </si>
-  <si>
-    <t>工创中心A301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖逍、王临远、吴旭达、饶欣哲、鲁帅雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024/6/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目原型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端：登录、注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端：商家列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端：点餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端：管理购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端：下单购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端：搜索商家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端：查看历史订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端：查看商家地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.添加了查看商家地址的功能需求；
-2.分工。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：登录、注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：商家列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：点餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：管理购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：下单购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：搜索商家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：查看历史订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：查看商家地址</t>
+3.程序开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.UE和UI设计；
+2.静态页设计；
+3.程序开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.环境框架搭建；
+2.程序开发；
+3.测试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.程序开发；
+2.测试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.程序开发。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,6 +521,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,7 +535,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,15 +543,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -861,7 +858,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -869,7 +866,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -877,7 +874,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -885,7 +882,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -893,7 +890,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -921,10 +918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09345C04-CA22-4810-B0AB-A5FAFFA6DEF5}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -939,20 +936,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
@@ -983,7 +980,7 @@
         <v>45467</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -994,13 +991,13 @@
         <v>24</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="12">
         <v>45469</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1011,7 +1008,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" s="12">
         <v>45465</v>
@@ -1028,13 +1025,13 @@
         <v>25</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="C6" s="12">
+        <v>45469</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1045,7 +1042,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C7" s="12">
         <v>45465</v>
@@ -1058,27 +1055,31 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C8" s="12">
+        <v>45467</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="B9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="10" t="s">
         <v>43</v>
+      </c>
+      <c r="C9" s="12">
+        <v>45470</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>6</v>
@@ -1088,12 +1089,14 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="B10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="C10" s="12">
+        <v>45471</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>6</v>
@@ -1103,12 +1106,14 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="B11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="C11" s="12">
+        <v>45470</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>6</v>
@@ -1118,12 +1123,14 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C12" s="12">
+        <v>45469</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>6</v>
@@ -1133,12 +1140,14 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="12">
+        <v>45470</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>6</v>
@@ -1152,10 +1161,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="C14" s="12">
+        <v>45475</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>6</v>
@@ -1165,12 +1174,14 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="C15" s="12">
+        <v>45469</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>6</v>
@@ -1180,12 +1191,14 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="C16" s="12">
+        <v>45471</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>6</v>
@@ -1195,12 +1208,14 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="C17" s="12">
+        <v>45471</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>6</v>
@@ -1210,12 +1225,14 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B18" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c r="C18" s="12">
+        <v>45471</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>6</v>
@@ -1225,12 +1242,14 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B19" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="C19" s="12">
+        <v>45475</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>6</v>
@@ -1240,12 +1259,14 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B20" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="C20" s="12">
+        <v>45475</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>6</v>
@@ -1255,12 +1276,14 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B21" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="C21" s="12">
+        <v>45476</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>6</v>
@@ -1271,11 +1294,9 @@
     </row>
     <row r="22" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="10" t="s">
-        <v>62</v>
-      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>6</v>
@@ -1288,7 +1309,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>6</v>
@@ -1301,7 +1322,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>6</v>
@@ -1314,7 +1335,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>6</v>
@@ -1327,7 +1348,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>6</v>
@@ -1336,22 +1357,9 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
+    <row r="27" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -1359,7 +1367,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D27" xr:uid="{3DA0CCCC-02EA-47CF-8712-18094529F906}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D26" xr:uid="{3DA0CCCC-02EA-47CF-8712-18094529F906}">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1407,54 +1415,54 @@
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" s="8" customFormat="1" ht="65.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="23">
         <v>45465.666666666664</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1475,62 +1483,62 @@
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
+      <c r="B14" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
+      <c r="B15" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
+      <c r="B16" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1552,12 +1560,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="16"/>
       <c r="F1" s="8"/>
     </row>
@@ -1575,7 +1583,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="18"/>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="33" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1591,7 +1599,7 @@
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="31"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
@@ -1603,7 +1611,7 @@
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="31"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
@@ -1615,7 +1623,7 @@
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="31"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
@@ -1627,7 +1635,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="31"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
@@ -1639,7 +1647,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="31"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
@@ -1649,7 +1657,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="31"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
@@ -1659,7 +1667,7 @@
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="31"/>
+      <c r="F9" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
+++ b/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLocalRepository\professional-training\【项目成果物】第11组-hungry\03.项目文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F005FAB8-8AC7-49FF-A67C-284BF529F24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094C3889-8457-4449-A435-77DDC20CD899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5868" yWindow="-60" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人员分组表" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,34 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前端：登录、注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：商家列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：点餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：下单购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：搜索商家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：查看历史订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：查看商家地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后端：管理送货地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,6 +258,102 @@
   </si>
   <si>
     <t>1.程序开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：搜索食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：筛选商家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：注销账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：更改商家列表排列方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：评分评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：管理食品（商家）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：暂停营业（商家）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：查看订单（商家）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：管理商家列表（管理员）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：关闭店铺（管理员）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：商家注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：开始界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：商家列表界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：商家详情界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：下单界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：查看历史订单界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：查看商家地址界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：管理送货地址界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：商家注册界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：注册界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：登录界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：店铺管理界面（商家）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：商家管理界面（管理员）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,7 +902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -858,7 +926,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -866,7 +934,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -874,7 +942,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -882,7 +950,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -890,7 +958,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -918,16 +986,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09345C04-CA22-4810-B0AB-A5FAFFA6DEF5}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" activeCellId="1" sqref="B40 E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="7"/>
-    <col min="2" max="2" width="25.5546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="9" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" style="9" customWidth="1"/>
     <col min="5" max="5" width="12.109375" customWidth="1"/>
@@ -1065,7 +1133,7 @@
         <v>45467</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1093,7 +1161,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C10" s="12">
         <v>45471</v>
@@ -1133,7 +1201,7 @@
         <v>45469</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1157,15 +1225,11 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="12">
-        <v>45475</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C14" s="12"/>
       <c r="D14" s="10" t="s">
         <v>6</v>
       </c>
@@ -1174,15 +1238,11 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="12">
-        <v>45469</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C15" s="12"/>
       <c r="D15" s="10" t="s">
         <v>6</v>
       </c>
@@ -1191,15 +1251,11 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="12">
-        <v>45471</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C16" s="12"/>
       <c r="D16" s="10" t="s">
         <v>6</v>
       </c>
@@ -1208,15 +1264,11 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="12">
-        <v>45471</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C17" s="12"/>
       <c r="D17" s="10" t="s">
         <v>6</v>
       </c>
@@ -1225,15 +1277,11 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="12">
-        <v>45471</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C18" s="12"/>
       <c r="D18" s="10" t="s">
         <v>6</v>
       </c>
@@ -1242,15 +1290,11 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="12">
-        <v>45475</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C19" s="12"/>
       <c r="D19" s="10" t="s">
         <v>6</v>
       </c>
@@ -1259,15 +1303,11 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="12">
-        <v>45475</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C20" s="12"/>
       <c r="D20" s="10" t="s">
         <v>6</v>
       </c>
@@ -1276,15 +1316,11 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="12">
-        <v>45476</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C21" s="12"/>
       <c r="D21" s="10" t="s">
         <v>6</v>
       </c>
@@ -1294,10 +1330,10 @@
     </row>
     <row r="22" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="B22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="12"/>
       <c r="D22" s="10" t="s">
         <v>6</v>
       </c>
@@ -1307,10 +1343,10 @@
     </row>
     <row r="23" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="B23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="12"/>
       <c r="D23" s="10" t="s">
         <v>6</v>
       </c>
@@ -1320,10 +1356,10 @@
     </row>
     <row r="24" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="B24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="12"/>
       <c r="D24" s="10" t="s">
         <v>6</v>
       </c>
@@ -1332,10 +1368,14 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10" t="s">
-        <v>38</v>
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="12">
+        <v>45475</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>6</v>
@@ -1345,10 +1385,14 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10" t="s">
-        <v>38</v>
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="12">
+        <v>45469</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>6</v>
@@ -1357,9 +1401,210 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="12">
+        <v>45471</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="12">
+        <v>45471</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="12">
+        <v>45471</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="12">
+        <v>45475</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="12">
+        <v>45475</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="12">
+        <v>45476</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -1367,11 +1612,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D26" xr:uid="{3DA0CCCC-02EA-47CF-8712-18094529F906}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D39" xr:uid="{3DA0CCCC-02EA-47CF-8712-18094529F906}">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1529,16 +1775,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
+++ b/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLocalRepository\professional-training\【项目成果物】第11组-hungry\03.项目文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094C3889-8457-4449-A435-77DDC20CD899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647E406A-9F03-404E-8A15-C49D4F59B76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="-60" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人员分组表" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后端：搜索食品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后端：筛选商家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,10 +290,6 @@
   </si>
   <si>
     <t>后端：管理商家列表（管理员）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端：关闭店铺（管理员）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -986,10 +978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09345C04-CA22-4810-B0AB-A5FAFFA6DEF5}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" activeCellId="1" sqref="B40 E25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1232,7 @@
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="10" t="s">
@@ -1253,7 +1245,7 @@
     <row r="16" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="10" t="s">
@@ -1266,7 +1258,7 @@
     <row r="17" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="10" t="s">
@@ -1279,7 +1271,7 @@
     <row r="18" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="10" t="s">
@@ -1292,7 +1284,7 @@
     <row r="19" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="10" t="s">
@@ -1342,11 +1334,15 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="C23" s="12">
+        <v>45475</v>
+      </c>
       <c r="D23" s="10" t="s">
         <v>6</v>
       </c>
@@ -1355,11 +1351,15 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B24" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="12">
+        <v>45469</v>
+      </c>
       <c r="D24" s="10" t="s">
         <v>6</v>
       </c>
@@ -1368,15 +1368,11 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="12">
-        <v>45475</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C25" s="12"/>
       <c r="D25" s="10" t="s">
         <v>6</v>
       </c>
@@ -1385,15 +1381,11 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="12">
-        <v>45469</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C26" s="12"/>
       <c r="D26" s="10" t="s">
         <v>6</v>
       </c>
@@ -1402,11 +1394,15 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B27" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="C27" s="12">
+        <v>45471</v>
+      </c>
       <c r="D27" s="10" t="s">
         <v>6</v>
       </c>
@@ -1415,11 +1411,15 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B28" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="C28" s="12">
+        <v>45471</v>
+      </c>
       <c r="D28" s="10" t="s">
         <v>6</v>
       </c>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="29" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>67</v>
@@ -1452,7 +1452,7 @@
         <v>68</v>
       </c>
       <c r="C30" s="12">
-        <v>45471</v>
+        <v>45475</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>6</v>
@@ -1469,7 +1469,7 @@
         <v>69</v>
       </c>
       <c r="C31" s="12">
-        <v>45471</v>
+        <v>45475</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>6</v>
@@ -1480,13 +1480,13 @@
     </row>
     <row r="32" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="12">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>6</v>
@@ -1496,14 +1496,12 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="B33" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="12">
-        <v>45475</v>
+      <c r="C33" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>6</v>
@@ -1513,14 +1511,12 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="12">
-        <v>45476</v>
+      <c r="C34" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>6</v>
@@ -1532,7 +1528,7 @@
     <row r="35" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>38</v>
@@ -1547,7 +1543,7 @@
     <row r="36" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>38</v>
@@ -1561,9 +1557,7 @@
     </row>
     <row r="37" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="10" t="s">
-        <v>77</v>
-      </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="10" t="s">
         <v>38</v>
       </c>
@@ -1574,37 +1568,9 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
+    <row r="38" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -1612,7 +1578,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D39" xr:uid="{3DA0CCCC-02EA-47CF-8712-18094529F906}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D37" xr:uid="{3DA0CCCC-02EA-47CF-8712-18094529F906}">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1775,16 +1741,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
+++ b/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLocalRepository\professional-training\【项目成果物】第11组-hungry\03.项目文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647E406A-9F03-404E-8A15-C49D4F59B76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DBC099-D109-4DF3-A263-642BB9A38C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="80">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +346,17 @@
   </si>
   <si>
     <t>前端：商家管理界面（管理员）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：管理用户权限（管理员）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/6/</t>
+  </si>
+  <si>
+    <t>2024/7/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,10 +989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09345C04-CA22-4810-B0AB-A5FAFFA6DEF5}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1153,7 @@
         <v>45470</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1150,16 +1161,16 @@
     </row>
     <row r="10" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="12">
-        <v>45471</v>
+        <v>45469</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1167,7 +1178,7 @@
     </row>
     <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>44</v>
@@ -1176,7 +1187,7 @@
         <v>45470</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1201,7 +1212,7 @@
     </row>
     <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>46</v>
@@ -1210,18 +1221,22 @@
         <v>45470</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="12">
+        <v>45470</v>
+      </c>
       <c r="D14" s="10" t="s">
         <v>6</v>
       </c>
@@ -1230,24 +1245,32 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="12">
+        <v>45470</v>
+      </c>
       <c r="D15" s="10" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B16" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="12">
+        <v>45470</v>
+      </c>
       <c r="D16" s="10" t="s">
         <v>6</v>
       </c>
@@ -1256,11 +1279,15 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="12">
+        <v>45471</v>
+      </c>
       <c r="D17" s="10" t="s">
         <v>6</v>
       </c>
@@ -1269,11 +1296,15 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="12">
+        <v>45471</v>
+      </c>
       <c r="D18" s="10" t="s">
         <v>6</v>
       </c>
@@ -1282,11 +1313,15 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="D19" s="10" t="s">
         <v>6</v>
       </c>
@@ -1295,11 +1330,15 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="D20" s="10" t="s">
         <v>6</v>
       </c>
@@ -1308,11 +1347,15 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="D21" s="10" t="s">
         <v>6</v>
       </c>
@@ -1321,11 +1364,15 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="D22" s="10" t="s">
         <v>6</v>
       </c>
@@ -1335,13 +1382,13 @@
     </row>
     <row r="23" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="12">
-        <v>45475</v>
+        <v>62</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>6</v>
@@ -1352,13 +1399,13 @@
     </row>
     <row r="24" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C24" s="12">
-        <v>45469</v>
+        <v>45475</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>6</v>
@@ -1370,9 +1417,11 @@
     <row r="25" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="C25" s="12">
+        <v>45469</v>
+      </c>
       <c r="D25" s="10" t="s">
         <v>6</v>
       </c>
@@ -1383,7 +1432,7 @@
     <row r="26" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="10" t="s">
@@ -1394,15 +1443,11 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="B27" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="12">
-        <v>45471</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C27" s="12"/>
       <c r="D27" s="10" t="s">
         <v>6</v>
       </c>
@@ -1411,11 +1456,9 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="12">
         <v>45471</v>
@@ -1428,11 +1471,9 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A29" s="2"/>
       <c r="B29" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="12">
         <v>45471</v>
@@ -1445,14 +1486,12 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="12">
-        <v>45475</v>
+        <v>45471</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>6</v>
@@ -1462,11 +1501,9 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A31" s="2"/>
       <c r="B31" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="12">
         <v>45475</v>
@@ -1479,14 +1516,12 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="12">
-        <v>45476</v>
+        <v>45475</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>6</v>
@@ -1498,10 +1533,10 @@
     <row r="33" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>38</v>
+        <v>70</v>
+      </c>
+      <c r="C33" s="12">
+        <v>45476</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>6</v>
@@ -1513,7 +1548,7 @@
     <row r="34" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>38</v>
@@ -1528,7 +1563,7 @@
     <row r="35" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>38</v>
@@ -1543,7 +1578,7 @@
     <row r="36" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>38</v>
@@ -1557,7 +1592,9 @@
     </row>
     <row r="37" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="10"/>
+      <c r="B37" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="C37" s="10" t="s">
         <v>38</v>
       </c>
@@ -1568,9 +1605,22 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
     <row r="39" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -1578,7 +1628,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D37" xr:uid="{3DA0CCCC-02EA-47CF-8712-18094529F906}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D38" xr:uid="{3DA0CCCC-02EA-47CF-8712-18094529F906}">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
+++ b/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLocalRepository\professional-training\【项目成果物】第11组-hungry\03.项目文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DBC099-D109-4DF3-A263-642BB9A38C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4C16DF-CC4C-423B-805B-4ADD13B4CBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>静态页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后端：登录、注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,13 +346,6 @@
   </si>
   <si>
     <t>后端：管理用户权限（管理员）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024/6/</t>
-  </si>
-  <si>
-    <t>2024/7/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -929,7 +918,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -937,7 +926,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -945,7 +934,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -953,7 +942,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -961,7 +950,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -989,10 +978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09345C04-CA22-4810-B0AB-A5FAFFA6DEF5}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1093,16 +1082,16 @@
     </row>
     <row r="6" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="12">
-        <v>45469</v>
+        <v>45465</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1116,7 +1105,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="12">
-        <v>45465</v>
+        <v>45467</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>30</v>
@@ -1127,13 +1116,13 @@
     </row>
     <row r="8" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="12">
-        <v>45467</v>
+        <v>45470</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>30</v>
@@ -1144,13 +1133,13 @@
     </row>
     <row r="9" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C9" s="12">
-        <v>45470</v>
+        <v>45469</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>30</v>
@@ -1164,10 +1153,10 @@
         <v>27</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C10" s="12">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>30</v>
@@ -1177,14 +1166,14 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="12">
-        <v>45470</v>
+        <v>45469</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>30</v>
@@ -1195,13 +1184,13 @@
     </row>
     <row r="12" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="12">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>30</v>
@@ -1215,13 +1204,13 @@
         <v>26</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C13" s="12">
         <v>45470</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1229,16 +1218,16 @@
     </row>
     <row r="14" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" s="12">
         <v>45470</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1246,16 +1235,16 @@
     </row>
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="12">
         <v>45470</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1266,10 +1255,10 @@
         <v>26</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C16" s="12">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>6</v>
@@ -1283,7 +1272,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C17" s="12">
         <v>45471</v>
@@ -1300,10 +1289,10 @@
         <v>26</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C18" s="12">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>6</v>
@@ -1319,8 +1308,8 @@
       <c r="B19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>79</v>
+      <c r="C19" s="12">
+        <v>45475</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>6</v>
@@ -1336,8 +1325,8 @@
       <c r="B20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>79</v>
+      <c r="C20" s="12">
+        <v>45476</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>6</v>
@@ -1348,13 +1337,13 @@
     </row>
     <row r="21" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="C21" s="12">
+        <v>45474</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>6</v>
@@ -1368,10 +1357,10 @@
         <v>27</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>78</v>
+        <v>61</v>
+      </c>
+      <c r="C22" s="12">
+        <v>45476</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>6</v>
@@ -1382,13 +1371,13 @@
     </row>
     <row r="23" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>78</v>
+        <v>46</v>
+      </c>
+      <c r="C23" s="12">
+        <v>45477</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>6</v>
@@ -1399,13 +1388,13 @@
     </row>
     <row r="24" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C24" s="12">
-        <v>45475</v>
+        <v>45471</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>6</v>
@@ -1415,12 +1404,14 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B25" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C25" s="12">
-        <v>45469</v>
+        <v>45471</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>6</v>
@@ -1430,11 +1421,15 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B26" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="12">
+        <v>45471</v>
+      </c>
       <c r="D26" s="10" t="s">
         <v>6</v>
       </c>
@@ -1443,85 +1438,99 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B27" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="C27" s="12">
+        <v>45470</v>
+      </c>
       <c r="D27" s="10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B28" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="12">
-        <v>45471</v>
+        <v>45470</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B29" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="12">
-        <v>45471</v>
+        <v>45470</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B30" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="12">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B31" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C31" s="12">
-        <v>45475</v>
+        <v>45470</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B32" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="12">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>6</v>
@@ -1531,12 +1540,14 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B33" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C33" s="12">
-        <v>45476</v>
+        <v>45471</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>6</v>
@@ -1546,12 +1557,14 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B34" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>38</v>
+      <c r="C34" s="12">
+        <v>45475</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>6</v>
@@ -1561,12 +1574,14 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B35" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>38</v>
+        <v>74</v>
+      </c>
+      <c r="C35" s="12">
+        <v>45476</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>6</v>
@@ -1576,12 +1591,14 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B36" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>38</v>
+      <c r="C36" s="12">
+        <v>45477</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>6</v>
@@ -1592,9 +1609,7 @@
     </row>
     <row r="37" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="10" t="s">
-        <v>76</v>
-      </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="10" t="s">
         <v>38</v>
       </c>
@@ -1605,22 +1620,9 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
+    <row r="38" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -1628,7 +1630,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D38" xr:uid="{3DA0CCCC-02EA-47CF-8712-18094529F906}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D37" xr:uid="{3DA0CCCC-02EA-47CF-8712-18094529F906}">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1776,7 +1778,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="30"/>

--- a/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
+++ b/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLocalRepository\professional-training\【项目成果物】第11组-hungry\03.项目文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4C16DF-CC4C-423B-805B-4ADD13B4CBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0A8525-8DFD-468F-87C4-A0EB61B4899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,18 +277,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后端：暂停营业（商家）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后端：查看订单（商家）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后端：管理商家列表（管理员）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后端：商家注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,7 +337,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后端：管理用户权限（管理员）</t>
+    <t>后端：暂停营业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,10 +970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09345C04-CA22-4810-B0AB-A5FAFFA6DEF5}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1255,7 +1247,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="12">
         <v>45471</v>
@@ -1306,7 +1298,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C19" s="12">
         <v>45475</v>
@@ -1323,7 +1315,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="12">
         <v>45476</v>
@@ -1337,13 +1329,13 @@
     </row>
     <row r="21" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C21" s="12">
-        <v>45474</v>
+        <v>45477</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>6</v>
@@ -1354,13 +1346,13 @@
     </row>
     <row r="22" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="12">
-        <v>45476</v>
+        <v>45471</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>6</v>
@@ -1371,13 +1363,13 @@
     </row>
     <row r="23" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C23" s="12">
-        <v>45477</v>
+        <v>45471</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>6</v>
@@ -1391,7 +1383,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C24" s="12">
         <v>45471</v>
@@ -1408,13 +1400,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C25" s="12">
-        <v>45471</v>
+        <v>45470</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1425,13 +1417,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C26" s="12">
-        <v>45471</v>
+        <v>45470</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1462,10 +1454,10 @@
         <v>65</v>
       </c>
       <c r="C28" s="12">
-        <v>45470</v>
+        <v>45474</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1473,7 +1465,7 @@
     </row>
     <row r="29" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>66</v>
@@ -1482,7 +1474,7 @@
         <v>45470</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1490,16 +1482,16 @@
     </row>
     <row r="30" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="12">
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1513,10 +1505,10 @@
         <v>68</v>
       </c>
       <c r="C31" s="12">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1524,13 +1516,13 @@
     </row>
     <row r="32" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="12">
-        <v>45476</v>
+        <v>45475</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>6</v>
@@ -1544,10 +1536,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C33" s="12">
-        <v>45471</v>
+        <v>45476</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>6</v>
@@ -1561,10 +1553,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C34" s="12">
-        <v>45475</v>
+        <v>45477</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>6</v>
@@ -1574,14 +1566,10 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="12">
-        <v>45476</v>
+      <c r="A35" s="2"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>6</v>
@@ -1590,39 +1578,9 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="12">
-        <v>45477</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
+    <row r="36" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -1630,7 +1588,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D37" xr:uid="{3DA0CCCC-02EA-47CF-8712-18094529F906}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D35" xr:uid="{3DA0CCCC-02EA-47CF-8712-18094529F906}">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
+++ b/【项目成果物】第11组-hungry/03.项目文件/01.项目启动文档-第11组.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLocalRepository\professional-training\【项目成果物】第11组-hungry\03.项目文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0A8525-8DFD-468F-87C4-A0EB61B4899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561596C6-8F11-4F2D-A3D5-7CF82A9CD895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09345C04-CA22-4810-B0AB-A5FAFFA6DEF5}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
